--- a/medicine/Pharmacie/Alanine/Alanine.xlsx
+++ b/medicine/Pharmacie/Alanine/Alanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'alanine (abréviations IUPAC-IUBMB : Ala et A) est un acide α-aminé dont l'énantiomère L est l'un des 22 acides aminés protéinogènes, encodé sur les ARN messagers par les codons GCU, GCC, GCA et GCG. Elle est caractérisée par une chaîne latérale apolaire aliphatique. Elle est, avec la sérine, la leucine et la glycine, l'un des acides aminés les plus fréquents dans les protéines.
@@ -514,7 +526,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alanine est un des 20 acides aminés principalement retrouvés dans les chaînes peptidiques des protéines.
 Pour la synthétiser, on fait agir le malonate d'éthyle sur l'acétate de sodium. L'anion obtenu réagit sur le bromoéthane en milieu basique puis une saponification suivie d'un passage en milieu acide. Puis on fait réagir le dibrome en présence de phosphore. Enfin l'action de l'ammoniac en excès suivie d'une hydrolyse acide permet d'obtenir l'alanine.
@@ -546,7 +560,9 @@
           <t>Bêta-alanine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La β-alanine est l'acide 3-aminopropanoïque ou acide β-aminopropanoïque, un isomère de position de l'alanine. Dans cette molécule, le groupe amine est en position β (3) du groupe carboxyle, alors qu'il est en α sur l'alanine. 
 </t>
